--- a/xlsx/研究所_intext.xlsx
+++ b/xlsx/研究所_intext.xlsx
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_研究所</t>
+    <t>中国大陆</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E6%AD%B7</t>
   </si>
   <si>
-    <t>學歷</t>
+    <t>学历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>碩士</t>
+    <t>硕士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%A3%AB</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>企業</t>
+    <t>企业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E5%8D%8E%E5%A4%A7%E5%AD%A6</t>
@@ -131,25 +131,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%90%89%E5%87%BA%E7%89%88%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>賽吉出版公司</t>
+    <t>赛吉出版公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
+    <t>教育学</t>
   </si>
 </sst>
 </file>

--- a/xlsx/研究所_intext.xlsx
+++ b/xlsx/研究所_intext.xlsx
@@ -29,7 +29,7 @@
     <t>中國大陸</t>
   </si>
   <si>
-    <t>政策_政策_智庫_研究所</t>
+    <t>体育运动_体育运动_体育_研究所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
